--- a/sentinel-rule-templates.xlsx
+++ b/sentinel-rule-templates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olafhartong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olafhartong/tools/Sentinel-template-parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D12AF-BD42-9D4A-A750-D857609DAFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217814E8-4C0D-EE45-9E4B-66DDC0F85843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="50560" windowHeight="28340" xr2:uid="{AABE5CD0-95F4-C14F-B2CC-A25C047EFB1B}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="50560" windowHeight="28340" xr2:uid="{AABE5CD0-95F4-C14F-B2CC-A25C047EFB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="1" r:id="rId1"/>
@@ -6280,16 +6280,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{205DEB2E-F98D-9940-8CC9-ACED8CBF2BF8}" name="Table1" displayName="Table1" ref="A1:G161" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{205DEB2E-F98D-9940-8CC9-ACED8CBF2BF8}" name="Table1" displayName="Table1" ref="A1:G161" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G161" xr:uid="{794AA46E-54FE-564D-AB8A-988E50DAB753}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{32DB1FAE-B69D-544F-870E-6621BC65477A}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F397D352-6F8E-B147-BF56-C1D8E12A86A2}" name="Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CE921CB8-4E6E-8F4F-83CF-0ECA9EE0C1C5}" name="Platform" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5BAFCD7C-F75A-6A4D-BA43-9CE859A7DFBF}" name="DataType" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{633DA921-BEF8-6E47-90C2-2D0FBC633F70}" name="Tactic" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{60FDE0EE-776F-874A-A55D-4A07496CB57F}" name="Description" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{CB3139D8-5600-B141-B2C0-34BC00C7EFA5}" name="Query" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{32DB1FAE-B69D-544F-870E-6621BC65477A}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F397D352-6F8E-B147-BF56-C1D8E12A86A2}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CE921CB8-4E6E-8F4F-83CF-0ECA9EE0C1C5}" name="Platform" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5BAFCD7C-F75A-6A4D-BA43-9CE859A7DFBF}" name="DataType" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{633DA921-BEF8-6E47-90C2-2D0FBC633F70}" name="Tactic" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{60FDE0EE-776F-874A-A55D-4A07496CB57F}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CB3139D8-5600-B141-B2C0-34BC00C7EFA5}" name="Query" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6602,11 +6602,12 @@
   <cols>
     <col min="1" max="1" width="43" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="142.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="127.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
